--- a/01_Linear/Nachtfliegen_03.xlsx
+++ b/01_Linear/Nachtfliegen_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B20CA5-0F71-5D45-A561-022F38A01866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF941D-4473-314D-8FEC-5D58B4EFC459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1420" windowWidth="30560" windowHeight="18580" activeTab="6" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="30940" windowHeight="19860" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>Challenge:</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Decision: </t>
   </si>
   <si>
-    <t>How many to produce?</t>
-  </si>
-  <si>
     <t>Nachtfliegen Enterprises Produces Quadcopters</t>
   </si>
   <si>
@@ -326,6 +323,66 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>=VLOOKUP(B8,quads,2,FALSE)</t>
+  </si>
+  <si>
+    <t>Product-Mix Problem</t>
+  </si>
+  <si>
+    <t>Resource Allocation Problem</t>
+  </si>
+  <si>
+    <t>Cost-Benefit-Trade-Off Problems</t>
+  </si>
+  <si>
+    <t>Mixed Problems</t>
+  </si>
+  <si>
+    <t>Transportation Problems</t>
+  </si>
+  <si>
+    <t>Assignment Problems</t>
+  </si>
+  <si>
+    <t>Divisibility Assumption: integer values</t>
+  </si>
+  <si>
+    <t>linear programming models require decision variables to allow fractional values</t>
+  </si>
+  <si>
+    <t>resources used &lt;= available resources</t>
+  </si>
+  <si>
+    <t>how many of each product to make?</t>
+  </si>
+  <si>
+    <t>Scheduling</t>
+  </si>
+  <si>
+    <t>How many people for each shift?</t>
+  </si>
+  <si>
+    <t>resources used &gt;= available needed</t>
+  </si>
+  <si>
+    <t>Functional Constraints</t>
+  </si>
+  <si>
+    <t>&gt;=, &lt;=, ==</t>
+  </si>
+  <si>
+    <t>one Task per Person, one Person per Task</t>
+  </si>
+  <si>
+    <t>Trains, Planes, and Automobiles</t>
+  </si>
+  <si>
+    <t>How many of each to produce?</t>
+  </si>
+  <si>
+    <t>How about</t>
   </si>
 </sst>
 </file>
@@ -413,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +512,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -595,6 +653,29 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Which constraints are binding?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
             <a:t>Would</a:t>
           </a:r>
           <a:r>
@@ -602,12 +683,6 @@
             <a:t> 20 each work?</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Which constraints are binding?</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1044,36 +1119,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAF7CFD-36EB-B946-8904-E54727B0DCE3}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1081,49 +1156,133 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1137,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1310,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="F8" sqref="F6:F8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,24 +1327,24 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1196,8 +1355,11 @@
       <c r="D4" s="1">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
       <c r="I4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1206,12 +1368,12 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -1222,20 +1384,22 @@
       <c r="D6" s="1">
         <v>50</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1">
         <v>2000</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -1246,20 +1410,22 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1">
         <v>1500</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
@@ -1270,15 +1436,17 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>1000</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1289,7 +1457,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1313,7 +1481,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,24 +1498,24 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6">
         <v>4</v>
@@ -1363,7 +1531,7 @@
         <v>642.85714285714312</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1372,12 +1540,12 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="I5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="6">
         <v>10</v>
@@ -1393,18 +1561,18 @@
         <v>2000.0000000000014</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7">
         <v>2000</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="6">
         <v>10</v>
@@ -1420,18 +1588,18 @@
         <v>1500.0000000000002</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7">
         <v>1500</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6">
         <v>100</v>
@@ -1447,13 +1615,13 @@
         <v>12142.857142857138</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7">
         <v>1000</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1464,7 +1632,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>114.28571428571422</v>
@@ -1478,6 +1646,9 @@
       <c r="E10" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
       <c r="B12">
         <v>20</v>
       </c>
@@ -1488,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1537,24 +1708,24 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1578,7 +1749,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="15">
         <v>0.1</v>
@@ -1594,7 +1765,7 @@
         <v>20.000000000000004</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="16">
         <v>20</v>
@@ -1602,7 +1773,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -1618,7 +1789,7 @@
         <v>799.99999999999909</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6">
         <v>3000</v>
@@ -1632,7 +1803,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6">
         <v>10</v>
@@ -1648,7 +1819,7 @@
         <v>2000.0000000000018</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7">
         <v>2000</v>
@@ -1656,7 +1827,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6">
         <v>10</v>
@@ -1672,7 +1843,7 @@
         <v>1999.9999999999968</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7">
         <v>1500</v>
@@ -1680,7 +1851,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="6">
         <v>100</v>
@@ -1696,7 +1867,7 @@
         <v>19999.999999999938</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7">
         <v>1000</v>
@@ -1710,7 +1881,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="10">
         <v>199.99999999999932</v>
@@ -1725,20 +1896,20 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1765,20 +1936,20 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
@@ -1796,12 +1967,12 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -1814,7 +1985,7 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7">
         <v>6</v>
@@ -1822,7 +1993,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -1835,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7">
         <v>4</v>
@@ -1843,7 +2014,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
@@ -1856,7 +2027,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7">
         <v>10</v>
@@ -1869,7 +2040,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
@@ -1889,7 +2060,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1902,103 +2073,106 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ref="C8:C14" si="0">VLOOKUP(B8,quads,2,FALSE)</f>
         <v>QuadOne</v>
       </c>
+      <c r="D8" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="e">
         <f t="shared" si="0"/>
@@ -2007,7 +2181,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -2016,7 +2190,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="e">
         <f t="shared" si="0"/>
@@ -2025,7 +2199,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2034,7 +2208,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2043,7 +2217,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>

--- a/01_Linear/Nachtfliegen_03.xlsx
+++ b/01_Linear/Nachtfliegen_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF941D-4473-314D-8FEC-5D58B4EFC459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BFE2F-6948-6E49-B654-1AF61EBB161A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="30940" windowHeight="19860" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="4040" yWindow="-21140" windowWidth="30940" windowHeight="19860" activeTab="1" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAF7CFD-36EB-B946-8904-E54727B0DCE3}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1290,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD44AB-9FF3-8748-A8BE-D9A144FAA072}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/01_Linear/Nachtfliegen_03.xlsx
+++ b/01_Linear/Nachtfliegen_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BFE2F-6948-6E49-B654-1AF61EBB161A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C842BE8-9D97-CC48-ABCB-B8BFB1114441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="-21140" windowWidth="30940" windowHeight="19860" activeTab="1" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30940" windowHeight="19860" activeTab="10" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -19,100 +19,185 @@
     <sheet name="QXModelSolve" sheetId="11" r:id="rId4"/>
     <sheet name="QX2" sheetId="12" r:id="rId5"/>
     <sheet name="QX2 ModelSolve" sheetId="13" r:id="rId6"/>
-    <sheet name="Abstract2_vary" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
+    <sheet name="QX3" sheetId="14" r:id="rId7"/>
+    <sheet name="QX3 ModelSolve" sheetId="15" r:id="rId8"/>
+    <sheet name="QX3b ModelSolve" sheetId="16" r:id="rId9"/>
+    <sheet name="Abstract2_vary" sheetId="8" r:id="rId10"/>
+    <sheet name="vlookup" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="quads">Sheet7!$B$2:$E$6</definedName>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">Abstract2_vary!$B$10:$C$10</definedName>
+    <definedName name="quads">vlookup!$B$2:$E$6</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">Abstract2_vary!$B$10:$C$10</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'QX2 ModelSolve'!$B$13:$D$13</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'QX3 ModelSolve'!$B$13:$D$13</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'QX3b ModelSolve'!$B$16:$D$16</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">QXModelSolve!$B$10:$D$10</definedName>
-    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">Abstract2_vary!$D$6:$D$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">Abstract2_vary!$D$6:$D$8</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'QX2 ModelSolve'!$E$6:$E$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'QX3 ModelSolve'!$B$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'QX3b ModelSolve'!$D$16</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">QXModelSolve!$E$6:$E$8</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'QX2 ModelSolve'!$E$9:$E$11</definedName>
-    <definedName name="solver_lin" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'QX3 ModelSolve'!$C$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'QX3b ModelSolve'!$E$6:$E$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'QX3 ModelSolve'!$D$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="8" hidden="1">'QX3b ModelSolve'!$E$9:$E$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'QX3 ModelSolve'!$E$6:$E$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="8" hidden="1">'QX3b ModelSolve'!$E$6:$E$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="7" hidden="1">'QX3 ModelSolve'!$E$9:$E$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="8" hidden="1">'QX3b ModelSolve'!$E$9:$E$11</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">Abstract2_vary!$D$4</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">Abstract2_vary!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'QX2 ModelSolve'!$E$4</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'QX3 ModelSolve'!$E$4</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'QX3b ModelSolve'!$E$4</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">QXModelSolve!$E$4</definedName>
-    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">Abstract2_vary!$F$6:$F$8</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">Abstract2_vary!$F$6:$F$8</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">'QX2 ModelSolve'!$G$6:$G$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'QX3 ModelSolve'!$B$15</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'QX3b ModelSolve'!$D$18</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">QXModelSolve!$G$6:$G$8</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'QX2 ModelSolve'!$G$9:$G$11</definedName>
-    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'QX3 ModelSolve'!$C$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'QX3b ModelSolve'!$G$6:$G$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">'QX3 ModelSolve'!$D$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="8" hidden="1">'QX3b ModelSolve'!$G$9:$G$14</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">'QX3 ModelSolve'!$G$6:$G$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="8" hidden="1">'QX3b ModelSolve'!$G$6:$G$7</definedName>
+    <definedName name="solver_rhs5" localSheetId="7" hidden="1">'QX3 ModelSolve'!$G$9:$G$11</definedName>
+    <definedName name="solver_rhs5" localSheetId="8" hidden="1">'QX3b ModelSolve'!$G$9:$G$11</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -131,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
   <si>
     <t>Challenge:</t>
   </si>
@@ -383,6 +468,15 @@
   </si>
   <si>
     <t>How about</t>
+  </si>
+  <si>
+    <t>at least 7 Titanium, 8 Steel, and 9 Aluminum.</t>
+  </si>
+  <si>
+    <t>Diagonal Ones</t>
+  </si>
+  <si>
+    <t>multiplicative identity: 1 times this, plus 1 times that, plus 1 times…</t>
   </si>
 </sst>
 </file>
@@ -470,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -513,6 +607,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -801,6 +898,152 @@
             <a:t>Weight needs to stay under 3000 and total cost below $20.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>755702</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD3922E-54D3-7A40-A6D4-EBC6E447D624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27709" y="26241"/>
+          <a:ext cx="5680993" cy="1371389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Nachtfliegen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> notices that Quadcopter QX is selling like... a well-selling drone.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>The CEO, Ms ConstraryArbitrary announces a new rule:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>You must use at least 8 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Titanium,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> 7 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steel, and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Aluminum.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1119,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAF7CFD-36EB-B946-8904-E54727B0DCE3}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A17" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,45 +1487,373 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <f>SUMPRODUCT(B4:C4,$B$10:$C$10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6:D8" si="0">SUMPRODUCT(B6:C6,$B$10:$C$10)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C354B7E-590A-8548-B457-7EB6020E920E}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ref="C8:C14" si="0">VLOOKUP(B8,quads,2,FALSE)</f>
+        <v>QuadOne</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>QuadAwesome</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>QuadThensome</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>QuadMaximus</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>QuadImpressive</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C9 C11" evalError="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1290,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCD44AB-9FF3-8748-A8BE-D9A144FAA072}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0"/>
+    <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1691,7 +2262,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1711,6 +2282,9 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>45</v>
@@ -1722,6 +2296,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="3"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1740,12 +2315,14 @@
         <f>SUMPRODUCT(B4:D4,$B$13:$D$13)</f>
         <v>9999.9999999999818</v>
       </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1800,6 +2377,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1821,7 +2399,7 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>2000</v>
       </c>
     </row>
@@ -1845,7 +2423,7 @@
       <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>1500</v>
       </c>
     </row>
@@ -1869,7 +2447,7 @@
       <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>1000</v>
       </c>
     </row>
@@ -1878,6 +2456,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1893,6 +2472,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1918,319 +2498,552 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86ECDB9A-A38D-1F4D-BABB-4C204908DA59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="242" zoomScaleNormal="242" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D81EE-AFFE-7143-A305-D7F541EAEB3E}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>120</v>
+      </c>
+      <c r="D4" s="3">
+        <v>130</v>
+      </c>
+      <c r="E4" s="14">
+        <f>SUMPRODUCT(B4:D4,$B$13:$D$13)</f>
+        <v>8069.9999999999982</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="14">
+        <f>SUMPRODUCT(B6:D6,$B$13:$D$13)</f>
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <f>SUMPRODUCT(B7:D7,$B$13:$D$13)</f>
+        <v>678.99999999999989</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14">
+        <f>SUMPRODUCT(B9:D9,$B$13:$D$13)</f>
+        <v>2009.9999999999998</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14">
+        <f>SUMPRODUCT(B10:D10,$B$13:$D$13)</f>
+        <v>1584.9999999999998</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <f>SUMPRODUCT(B11:D11,$B$13:$D$13)</f>
+        <v>13369.999999999996</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
+        <v>128.99999999999997</v>
+      </c>
+      <c r="C13" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="D13" s="10">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
-        <f>SUMPRODUCT(B4:C4,$B$10:$C$10)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" ref="D6:D8" si="0">SUMPRODUCT(B6:C6,$B$10:$C$10)</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C15" s="6">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C354B7E-590A-8548-B457-7EB6020E920E}">
-  <dimension ref="A1:E14"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B775702-A500-D44F-8D3E-97595068AF29}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>120</v>
+      </c>
+      <c r="D4" s="3">
+        <v>130</v>
+      </c>
+      <c r="E4" s="14">
+        <f>SUMPRODUCT(B4:D4,$B$16:$D$16)</f>
+        <v>8070.0000000000018</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="14">
+        <f>SUMPRODUCT(B6:D6,$B$16:$D$16)</f>
+        <v>20.000000000000007</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C7" s="6">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12</v>
+      </c>
+      <c r="E7" s="14">
+        <f>SUMPRODUCT(B7:D7,$B$16:$D$16)</f>
+        <v>679.00000000000011</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14">
+        <f>SUMPRODUCT(B9:D9,$B$16:$D$16)</f>
+        <v>2010.0000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="D10" s="6">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" ref="C8:C14" si="0">VLOOKUP(B8,quads,2,FALSE)</f>
-        <v>QuadOne</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="e">
+      <c r="E10" s="14">
+        <f>SUMPRODUCT(B10:D10,$B$16:$D$16)</f>
+        <v>1585.0000000000002</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <f>SUMPRODUCT(B11:D11,$B$16:$D$16)</f>
+        <v>13370.000000000004</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="14">
+        <f t="shared" ref="E12:E14" si="0">SUMPRODUCT(B12:D12,$B$16:$D$16)</f>
+        <v>129.00000000000003</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="str">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
-        <v>QuadAwesome</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>QuadThensome</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>QuadMaximus</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>QuadImpressive</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>129.00000000000003</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C9 C11" evalError="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>